--- a/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>NU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,168 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1157600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>877300</v>
+      </c>
+      <c r="F8" s="3">
         <v>636000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>480900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>336100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>245100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>202600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>156100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>162300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>455500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>307500</v>
+      </c>
+      <c r="F9" s="3">
         <v>209400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>130000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>87000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>58100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>70600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>55900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>47900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>702100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>569800</v>
+      </c>
+      <c r="F10" s="3">
         <v>426600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>350900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>249100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>187000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>132000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>100200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>114400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>149800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,37 +939,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F15" s="3">
         <v>6400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>5700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>2500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>3600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1182200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>944900</v>
+      </c>
+      <c r="F17" s="3">
         <v>724500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>502700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>342600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>298400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>228400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>180700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>157400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>262700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-88500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-21800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-6500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-53300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-25800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-24600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1027,48 +1095,60 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-88000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-13200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-82100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-16100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-50900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-110100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-37000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>7300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-45900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,66 +1176,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-88500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-21800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-53400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-113800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-37800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-22600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-22200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>12600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-6700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-5300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-66300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-34400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-49500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-107100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-32600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-66100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-34200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-49500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-107100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-32600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1375,48 +1515,60 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>88000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>13200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-66100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-34200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-49500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-107100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-32600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-66100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-34200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-49500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-107100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-32600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1079100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>905300</v>
+      </c>
+      <c r="F41" s="3">
         <v>177000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>167600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>185100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>252600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,37 +1841,49 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F45" s="3">
         <v>16000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>16300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>9100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,95 +1911,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22212800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>21798200</v>
+      </c>
+      <c r="F47" s="3">
         <v>18536400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>13727100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>12859000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>9512800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F48" s="3">
         <v>20500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>19600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>21800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>17900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>530100</v>
+      </c>
+      <c r="F49" s="3">
         <v>474200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>455700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>450900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>13000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>710200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>676100</v>
+      </c>
+      <c r="F52" s="3">
         <v>436900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>392500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>321500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>215000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25188700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>24258000</v>
+      </c>
+      <c r="F54" s="3">
         <v>19858700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>14926100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13951500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>10121100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,95 +2225,115 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5931000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5920800</v>
+      </c>
+      <c r="F57" s="3">
         <v>4882200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4127700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3990400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2982500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13310100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12600100</v>
+      </c>
+      <c r="F58" s="3">
         <v>9670300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>8089800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7505700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>5497200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>256400</v>
+      </c>
+      <c r="F59" s="3">
         <v>339100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>234800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>160800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>75900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,66 +2361,84 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>495900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>168000</v>
+      </c>
+      <c r="F61" s="3">
         <v>164900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>169900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>117100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>513600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>64600</v>
+      </c>
+      <c r="F62" s="3">
         <v>47400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>97700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>69800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>53700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20450500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19469000</v>
+      </c>
+      <c r="F66" s="3">
         <v>15417600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13022400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12014400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9317200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-95900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-116800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-128400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-108900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-104800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-117300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4738200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4789000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4441000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1903700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1937100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>803800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-66100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-34200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-49500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-107100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-32600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F83" s="3">
         <v>6400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>5700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>464300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>78300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1859100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-796200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-47100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-221900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-191600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>564800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>660700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-56700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,28 +3290,30 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-1300</v>
@@ -2879,8 +3321,14 @@
       <c r="K91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-30100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-9600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-109300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-10600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>225600</v>
+      </c>
+      <c r="F100" s="3">
         <v>2541200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>61400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>339000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>394400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-24400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-15600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>291500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F101" s="3">
         <v>57000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>78600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>279200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-310400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>505500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-388800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-74700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>732400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>262900</v>
+      </c>
+      <c r="F102" s="3">
         <v>709000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-665700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>461800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-143100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>286500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>149800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>874900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-214100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>NU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1306900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1157600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>877300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>636000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>480900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>336100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>245100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>202600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>156100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>162300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>504400</v>
+      </c>
+      <c r="E9" s="3">
         <v>455500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>307500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>209400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>130000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>87000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>58100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>70600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>55900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>802500</v>
+      </c>
+      <c r="E10" s="3">
         <v>702100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>569800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>426600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>350900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>249100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>187000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>132000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>100200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>114400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>149800</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,43 +965,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E15" s="3">
         <v>10400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>6400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1301800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1182200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>944900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>724500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>502700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>342600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>298400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>228400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>180700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>157400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>262700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-24600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-67600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-88500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-21800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-53300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1101,54 +1135,60 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-88000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-60000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-82100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-50900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-110100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-37000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-45900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1222,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-24600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-67700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-88500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-53400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-113800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-37800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-22600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-22200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-45000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-66300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-49500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-107100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-32600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-45100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-49500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-107100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-32600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1521,54 +1591,60 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>88000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-45100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-66100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-49500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-107100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-32600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-45100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-66100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-49500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-107100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-32600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,32 +1793,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1803600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1079100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>905300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>177000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>167600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>185100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>252600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,8 +1867,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,32 +1943,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E45" s="3">
         <v>59900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,32 +2019,35 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22249600</v>
+      </c>
+      <c r="E47" s="3">
         <v>22212800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21798200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18536400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>13727100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>12859000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9512800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1952,32 +2057,35 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E48" s="3">
         <v>40500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>37200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>21800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>17900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1987,32 +2095,35 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>565300</v>
+      </c>
+      <c r="E49" s="3">
         <v>557000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>530100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>474200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>455700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>450900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>13000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,32 +2209,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E52" s="3">
         <v>710200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>676100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>436900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>392500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>321500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>215000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,32 +2285,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26007000</v>
+      </c>
+      <c r="E54" s="3">
         <v>25188700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24258000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19858700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14926100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13951500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10121100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,32 +2357,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5894400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5931000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5920800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4882200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4127700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3990400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2982500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2262,32 +2393,35 @@
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14131600</v>
+      </c>
+      <c r="E58" s="3">
         <v>13310100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12600100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9670300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8089800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7505700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5497200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2297,32 +2431,35 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>430900</v>
+      </c>
+      <c r="E59" s="3">
         <v>308000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>256400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>339100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>234800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>160800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>75900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2332,8 +2469,11 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,32 +2507,35 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>441400</v>
+      </c>
+      <c r="E61" s="3">
         <v>495900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>168000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>164900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>169900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>117100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>513600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2402,32 +2545,35 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E62" s="3">
         <v>60600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>64600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>47400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>97700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>69800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>53700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,32 +2697,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21254300</v>
+      </c>
+      <c r="E66" s="3">
         <v>20450500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19469000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15417600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13022400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12014400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9317200</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,32 +2903,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-95900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-128400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-108900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-104800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-117300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,32 +3055,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4752700</v>
+      </c>
+      <c r="E76" s="3">
         <v>4738200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4789000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4441000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1903700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1937100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>803800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-45100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-66100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-49500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-107100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-32600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>10400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E89" s="3">
         <v>464300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>78300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1859100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-796200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-47100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-221900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-191600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>564800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>660700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-56700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>324200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>225600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2541200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>61400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>339000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>394400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-24400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>291500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-28500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>57000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>78600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>279200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-310400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>505500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-388800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-74700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E102" s="3">
         <v>732400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>262900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>709000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-665700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>461800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-143100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>286500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>149800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>874900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-214100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>NU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1618700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1450500</v>
+      </c>
+      <c r="F8" s="3">
         <v>1306900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1157600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>877300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>636000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>480900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>336100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>245100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>202600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>156100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>162300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>457000</v>
+      </c>
+      <c r="F9" s="3">
         <v>504400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>455500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>307500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>209400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>130000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>87000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>58100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>70600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>55900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>47900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1125700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>993500</v>
+      </c>
+      <c r="F10" s="3">
         <v>802500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>702100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>569800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>426600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>350900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>249100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>187000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>132000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>100200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>114400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>149800</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,46 +1007,58 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F15" s="3">
         <v>7600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>10400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>7700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>6400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>5700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1672300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1301800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1182200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>944900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>724500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>502700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>342600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>298400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>228400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>180700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>157400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>262700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-221800</v>
+      </c>
+      <c r="F18" s="3">
         <v>5100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-24600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-67600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-88500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-21800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-6500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-53300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-25800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-24600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1138,57 +1205,69 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-88000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-13200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>256800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-211900</v>
+      </c>
+      <c r="F21" s="3">
         <v>12700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-14200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-60000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-82100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-16100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-50900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-110100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-37000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>7300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-45900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>243600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-221700</v>
+      </c>
+      <c r="F23" s="3">
         <v>5100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-24600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-67700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-88500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-21800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-53400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-113800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-37800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>75900</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-22600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-22200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>12600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>8700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-3900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-6700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>3400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-297600</v>
+      </c>
+      <c r="F26" s="3">
         <v>7800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-29900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-45000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-66300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-34400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-49500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-107100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-32600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-297600</v>
+      </c>
+      <c r="F27" s="3">
         <v>7800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-29700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-45100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-66100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-34200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-49500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-107100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-32600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1594,57 +1733,69 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>88000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>13200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-297600</v>
+      </c>
+      <c r="F33" s="3">
         <v>7800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-29700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-45100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-66100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-34200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-49500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-107100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-32600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-297600</v>
+      </c>
+      <c r="F35" s="3">
         <v>7800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-29700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-45100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-66100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-34200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-49500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-107100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-32600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4178700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3959100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1803600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1079100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>905300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>177000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>167600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>185100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>252600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,31 +2049,37 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>1076700</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>521700</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>381800</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>374200</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,46 +2137,58 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F45" s="3">
         <v>44900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>59900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>51900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>16000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,122 +2225,146 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22297500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>23683700</v>
+      </c>
+      <c r="F47" s="3">
         <v>22249600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>22212800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>21798200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>18536400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>13727100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>12859000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>9512800</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>46500</v>
+      </c>
+      <c r="F48" s="3">
         <v>37900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>40500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>37200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>20500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>19600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>21800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>612800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>579600</v>
+      </c>
+      <c r="F49" s="3">
         <v>565300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>557000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>530100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>474200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>455700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>450900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>13000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1134600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>968500</v>
+      </c>
+      <c r="F52" s="3">
         <v>820000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>710200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>676100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>436900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>392500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>321500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>215000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29489400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>29916600</v>
+      </c>
+      <c r="F54" s="3">
         <v>26007000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>25188700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>24258000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>19858700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>14926100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13951500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10121100</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,122 +2617,142 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6871800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7054800</v>
+      </c>
+      <c r="F57" s="3">
         <v>5894400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5931000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>5920800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4882200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>4127700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>3990400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2982500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15938800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16044100</v>
+      </c>
+      <c r="F58" s="3">
         <v>14131600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>13310100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>12600100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>9670300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>8089800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7505700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5497200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>601600</v>
+      </c>
+      <c r="F59" s="3">
         <v>430900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>308000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>256400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>339100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>234800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>160800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>75900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,84 +2789,102 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>633500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>567600</v>
+      </c>
+      <c r="F61" s="3">
         <v>441400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>495900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>168000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>164900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>169900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>117100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>513600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>59100</v>
+      </c>
+      <c r="F62" s="3">
         <v>59600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>60600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>64600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>47400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>97700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>69800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>53700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24280900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25025800</v>
+      </c>
+      <c r="F66" s="3">
         <v>21254300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>20450500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19469000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15417600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>13022400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>12014400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9317200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>257100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>64600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-45900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-95900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-116800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-128400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-108900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-104800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-117300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5208500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4890800</v>
+      </c>
+      <c r="F76" s="3">
         <v>4752700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4738200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4789000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4441000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1903700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1937100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>803800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>141800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-297600</v>
+      </c>
+      <c r="F81" s="3">
         <v>7800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-29700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-45100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-66100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-34200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-49500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-107100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-32600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>10400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>6400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>5700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>228400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-15400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>464300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>78300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1859100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-796200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-47100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-221900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-191600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>564800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>660700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-56700</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,37 +3952,39 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4000</v>
+        <v>-46500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2700</v>
+        <v>-27700</v>
       </c>
       <c r="F91" s="3">
-        <v>-4700</v>
+        <v>-33600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3500</v>
+        <v>-38300</v>
       </c>
       <c r="H91" s="3">
-        <v>-500</v>
+        <v>-14700</v>
       </c>
       <c r="I91" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-1300</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-33600</v>
+        <v>-46500</v>
       </c>
       <c r="E94" s="3">
         <v>-27700</v>
       </c>
       <c r="F94" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-38200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-30100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-109300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-10600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>324200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>225600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2541200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>61400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>339000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>394400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-24400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-15600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>291500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>173600</v>
+      </c>
+      <c r="F101" s="3">
         <v>41800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-28500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>57000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>78600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>279200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-310400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>505500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-388800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-74700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>138200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>479500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>732400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>262900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>709000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-665700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>461800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-143100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>286500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>149800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>874900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-214100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>NU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1868600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1618700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1450500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1306900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1157600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>877300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>636000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>480900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>336100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>245100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>202600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>156100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>162300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>496200</v>
+      </c>
+      <c r="E9" s="3">
         <v>493000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>457000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>504400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>455500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>307500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>209400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>130000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>87000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>58100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>70600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>47900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1372400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1125700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>993500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>802500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>702100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>569800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>426600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>350900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>249100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>187000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>132000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>100200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>114400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>149800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,52 +1033,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E15" s="3">
         <v>13200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>10400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1544700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1375000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1672300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1301800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1182200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>944900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>724500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>502700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>342600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>298400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>228400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>180700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>157400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>262700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>323900</v>
+      </c>
+      <c r="E18" s="3">
         <v>243700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-221800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-24600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-67600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-88500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-53300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-25800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1211,63 +1245,69 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-88000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>338000</v>
+      </c>
+      <c r="E21" s="3">
         <v>256800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-211900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-60000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-82100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-50900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-110100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-37000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>7300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-45900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E23" s="3">
         <v>243600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-221700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-67700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-88500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-53400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-113800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>99100</v>
+      </c>
+      <c r="E24" s="3">
         <v>101900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>75900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-22600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-22200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E26" s="3">
         <v>141800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-297600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-45000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-66300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-49500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-107100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E27" s="3">
         <v>141800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-297600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-45100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-66100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-49500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-107100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1739,63 +1809,69 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>88000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E33" s="3">
         <v>141800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-297600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-45100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-66100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-49500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-107100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E35" s="3">
         <v>141800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-297600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-45100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-66100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-49500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-107100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,41 +2053,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5233500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4178700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3959100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1803600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1079100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>905300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>177000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>167600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>185100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>252600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,34 +2145,37 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1346600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1076700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>521700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>381800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>374200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,41 +2239,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E45" s="3">
         <v>73200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,41 +2333,44 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24749700</v>
+      </c>
+      <c r="E47" s="3">
         <v>22297500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23683700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22249600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22212800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21798200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18536400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>13727100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>12859000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9512800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2275,41 +2380,44 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51700</v>
+      </c>
+      <c r="E48" s="3">
         <v>46900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>40500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>19600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>21800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,41 +2427,44 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>651900</v>
+      </c>
+      <c r="E49" s="3">
         <v>612800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>579600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>565300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>557000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>530100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>474200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>455700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>450900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,41 +2568,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1423600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1134600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>968500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>820000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>710200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>676100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>436900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>392500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>321500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>215000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2662,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33608100</v>
+      </c>
+      <c r="E54" s="3">
         <v>29489400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29916600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26007000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25188700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24258000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19858700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14926100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13951500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10121100</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2749,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7749600</v>
+      </c>
+      <c r="E57" s="3">
         <v>6871800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7054800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5894400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5931000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5920800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4882200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4127700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3990400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2982500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,41 +2794,44 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18221300</v>
+      </c>
+      <c r="E58" s="3">
         <v>15938800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16044100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14131600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13310100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12600100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9670300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8089800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7505700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5497200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2707,41 +2841,44 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>712200</v>
+      </c>
+      <c r="E59" s="3">
         <v>360500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>601600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>430900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>308000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>256400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>339100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>234800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>160800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>75900</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,41 +2935,44 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>741000</v>
+      </c>
+      <c r="E61" s="3">
         <v>633500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>567600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>441400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>495900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>168000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>164900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>169900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>117100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>513600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2839,41 +2982,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E62" s="3">
         <v>67900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>59100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>60600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>64600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>47400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>97700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>69800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>53700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3170,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27963500</v>
+      </c>
+      <c r="E66" s="3">
         <v>24280900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25025800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21254300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20450500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19469000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15417600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13022400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12014400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9317200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,41 +3424,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>546700</v>
+      </c>
+      <c r="E72" s="3">
         <v>257100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>64600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-95900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-128400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-108900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-104800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-117300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,41 +3612,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5644600</v>
+      </c>
+      <c r="E76" s="3">
         <v>5208500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4890800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4752700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4738200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4789000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4441000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1903700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1937100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>803800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>224900</v>
+      </c>
+      <c r="E81" s="3">
         <v>141800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-297600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-45100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-66100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-49500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-107100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1699800</v>
+      </c>
+      <c r="E89" s="3">
         <v>94300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>228400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-15400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>464300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>78300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1859100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-796200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-47100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-221900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-191600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>564800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>660700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-56700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-46500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-38300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-33600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E100" s="3">
         <v>19900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>105300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>324200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>225600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2541200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>61400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>339000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>394400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-24400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>291500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E101" s="3">
         <v>70500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>173600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>41800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-28500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>57000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>78600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>279200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-310400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>505500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-388800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-74700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1864600</v>
+      </c>
+      <c r="E102" s="3">
         <v>138200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>479500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>732400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>262900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>709000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-665700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>461800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-143100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>286500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>149800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>874900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-214100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>NU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2136800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1868600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1618700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1450500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1306900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1157600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>877300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>636000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>480900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>336100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>245100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>202600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>156100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>162300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>216200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>594400</v>
+      </c>
+      <c r="E9" s="3">
         <v>496200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>493000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>457000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>504400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>455500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>307500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>209400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>130000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>87000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>58100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>70600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>55900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>66400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1542400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1372400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1125700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>993500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>802500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>702100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>569800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>426600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>350900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>249100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>187000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>132000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>114400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>149800</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1056,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E15" s="3">
         <v>14000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1725200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1544700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1375000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1672300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1301800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1182200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>944900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>724500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>502700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>342600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>298400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>228400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>180700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>157400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>262700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>411600</v>
+      </c>
+      <c r="E18" s="3">
         <v>323900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>243700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-221800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-67600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-88500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-21800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-53300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-25800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1248,66 +1282,72 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-88000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>430700</v>
+      </c>
+      <c r="E21" s="3">
         <v>338000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>256800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-211900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-14200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-60000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-82100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-50900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-110100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-37000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>7300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-45900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>411500</v>
+      </c>
+      <c r="E23" s="3">
         <v>324000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>243600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-221700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-24600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-67700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-88500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-53400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-113800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-46500</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E24" s="3">
         <v>99100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>101900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>75900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-22600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-22200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E26" s="3">
         <v>224900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>141800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-297600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-45000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-66300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-49500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-107100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-32600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E27" s="3">
         <v>224900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>141800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-297600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-45100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-66100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-49500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-107100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-32600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1812,66 +1882,72 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>88000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E33" s="3">
         <v>224900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>141800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-297600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-45100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-66100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-49500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-107100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-32600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E35" s="3">
         <v>224900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>141800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-297600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-45100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-66100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-49500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-107100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-32600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,44 +2140,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2662200</v>
+      </c>
+      <c r="E41" s="3">
         <v>5233500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4178700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3959100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1803600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1079100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>905300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>177000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>167600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>185100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>252600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,37 +2238,40 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1346600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1076700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>521700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>381800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>374200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,44 +2338,47 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E45" s="3">
         <v>74000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,44 +2438,47 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>29006400</v>
+      </c>
+      <c r="E47" s="3">
         <v>24749700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22297500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23683700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22249600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22212800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21798200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18536400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13727100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>12859000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9512800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2383,44 +2488,47 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E48" s="3">
         <v>51700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>37900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>40500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>21800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,44 +2538,47 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>675400</v>
+      </c>
+      <c r="E49" s="3">
         <v>651900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>612800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>579600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>565300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>557000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>530100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>474200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>455700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>450900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>13000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,44 +2688,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1559200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1423600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1134600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>968500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>820000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>710200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>676100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>436900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>392500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>321500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>215000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2788,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35693200</v>
+      </c>
+      <c r="E54" s="3">
         <v>33608100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29489400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29916600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26007000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25188700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24258000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19858700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14926100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13951500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10121100</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,44 +2880,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7834900</v>
+      </c>
+      <c r="E57" s="3">
         <v>7749600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6871800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7054800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5894400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5931000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5920800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4882200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4127700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3990400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2982500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,44 +2928,47 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19361500</v>
+      </c>
+      <c r="E58" s="3">
         <v>18221300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15938800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16044100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14131600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13310100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12600100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9670300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8089800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7505700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5497200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2844,44 +2978,47 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1012600</v>
+      </c>
+      <c r="E59" s="3">
         <v>712200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>360500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>601600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>430900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>308000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>256400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>339100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>234800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>160800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>75900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,44 +3078,47 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1031900</v>
+      </c>
+      <c r="E61" s="3">
         <v>741000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>633500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>567600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>441400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>495900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>168000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>164900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>169900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>117100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>513600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2985,44 +3128,47 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E62" s="3">
         <v>89700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>67900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>59100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>59600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>60600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>64600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>97700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>69800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>53700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3328,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29803900</v>
+      </c>
+      <c r="E66" s="3">
         <v>27963500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24280900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25025800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21254300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20450500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19469000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15417600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13022400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12014400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9317200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,44 +3598,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>887800</v>
+      </c>
+      <c r="E72" s="3">
         <v>546700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>257100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>64600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-95900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-128400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-108900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-104800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-117300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,44 +3798,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5889300</v>
+      </c>
+      <c r="E76" s="3">
         <v>5644600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5208500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4890800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4752700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4738200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4789000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4441000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1903700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1937100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>803800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E81" s="3">
         <v>224900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>141800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-297600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-45100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-66100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-49500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-107100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-32600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-33400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E83" s="3">
         <v>14000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3234400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1699800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>94300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>228400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-15400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>464300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>78300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1859100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-796200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-47100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-221900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-191600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>564800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>660700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-56700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-38300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-33600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-27700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>327200</v>
+      </c>
+      <c r="E100" s="3">
         <v>68200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>105300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>324200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>225600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2541200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>61400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>339000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>394400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-24400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>291500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E101" s="3">
         <v>148700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>70500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>173600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>41800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-28500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>57000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>78600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>279200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-310400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>505500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-388800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-74700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-143000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2961400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1864600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>138200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>479500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>732400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>262900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>709000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-665700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>461800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-143100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>286500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>149800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>874900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-214100</v>
       </c>
     </row>
